--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3591655.496700034</v>
+        <v>3696441.144284837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7633490.215706028</v>
+        <v>7613647.950485108</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>35.05360702936574</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9601371840625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1400396052428</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>142.4639694437126</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>227.0141108309996</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15.83694765564068</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>165.2256846633474</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>205.8951716468758</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>32.49442595689566</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.9151373928215</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>147.0633036394084</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>188.769289601541</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449514619</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>211.147499124903</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>106.1291803787679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.43694060669031</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065889</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>67.63081821229011</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>30.87238256912024</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652687</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>12.74007641194074</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,10 +3562,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>81.54417886827336</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>241.076224511998</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>1939.905734928583</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792696</v>
+        <v>1939.905734928583</v>
       </c>
       <c r="X2" t="n">
-        <v>2884.252265792696</v>
+        <v>1939.905734928583</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1939.905734928583</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>182.9275483748796</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>367.6491696559295</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>662.3527266874012</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7250629667018</v>
+        <v>599.0346656714322</v>
       </c>
       <c r="C4" t="n">
-        <v>765.7888800387949</v>
+        <v>599.0346656714322</v>
       </c>
       <c r="D4" t="n">
-        <v>615.6722406264591</v>
+        <v>448.9180262590965</v>
       </c>
       <c r="E4" t="n">
-        <v>615.6722406264591</v>
+        <v>301.0049326767033</v>
       </c>
       <c r="F4" t="n">
-        <v>468.7822931285488</v>
+        <v>301.0049326767033</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>301.0049326767033</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.507193008249</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.517642110232</v>
+        <v>819.8272448149623</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.7250629667018</v>
+        <v>599.0346656714322</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1793.919728214993</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1424.957211274581</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1066.691512667831</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1066.691512667831</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>515.8118151303141</v>
       </c>
       <c r="C7" t="n">
-        <v>590.8070661251691</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D7" t="n">
-        <v>590.8070661251691</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>590.8070661251691</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1469.551489101419</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1469.551489101419</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1469.551489101419</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1214.867000895532</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>925.4498308585712</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>697.4602799605539</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>697.4602799605539</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838975</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1458.811090838975</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1100.545392232225</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2722.984276312612</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903097</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4990,19 +4992,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.241234233291</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X10" t="n">
-        <v>1199.251683335274</v>
+        <v>978.4591041917437</v>
       </c>
       <c r="Y10" t="n">
         <v>978.4591041917437</v>
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,16 +5044,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5132,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>377.6556127449245</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>377.6556127449245</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>211.4566897748909</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,61 +5497,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.955258982919</v>
+        <v>3267.933418738896</v>
       </c>
       <c r="C28" t="n">
-        <v>889.0190760550122</v>
+        <v>3098.997235810989</v>
       </c>
       <c r="D28" t="n">
-        <v>738.9024366426764</v>
+        <v>2948.880596398654</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2800.967502816261</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2654.07755531835</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2486.88145603323</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.396302956689</v>
+        <v>3449.581883569136</v>
       </c>
       <c r="Y28" t="n">
-        <v>1239.603723813159</v>
+        <v>3449.581883569136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>3045.530642171613</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4220.062895286247</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3965.37840708036</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3675.9612370434</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3447.971686145383</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3227.179107001853</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384031</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1895.093223067808</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1640.408734861921</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7667,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708873</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.395944601127</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
   </sheetData>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>70.03064962107905</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>23.83108638657407</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>63.36835372228697</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.8269525734166</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>75.37549921168798</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.85777223953355</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>218.553656176954</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>221.2652607547078</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
     </row>
     <row r="38">
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>108.243127252297</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>204.6402955209708</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665372.6314015993</v>
+        <v>673691.3299030984</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665372.6314015993</v>
+        <v>673691.3299030984</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
@@ -26335,25 +26337,25 @@
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.096870141792242e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756543</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756628</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17328.05961985006</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985007</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745213.2400460247</v>
+        <v>-564426.1483367971</v>
       </c>
       <c r="C6" t="n">
-        <v>583531.5056815679</v>
+        <v>550325.6352391223</v>
       </c>
       <c r="D6" t="n">
-        <v>583531.5056815677</v>
+        <v>390904.3652412298</v>
       </c>
       <c r="E6" t="n">
-        <v>330917.0777174871</v>
+        <v>330917.0777174868</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248423</v>
+        <v>656329.5395248424</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248422</v>
+        <v>656329.5395248418</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248419</v>
+        <v>656329.5395248421</v>
       </c>
       <c r="I6" t="n">
         <v>656329.5395248424</v>
       </c>
       <c r="J6" t="n">
-        <v>438798.3371275648</v>
+        <v>488724.3617148599</v>
       </c>
       <c r="K6" t="n">
-        <v>640069.7879036721</v>
+        <v>656329.5395248425</v>
       </c>
       <c r="L6" t="n">
-        <v>659497.5058973042</v>
+        <v>608035.5695166513</v>
       </c>
       <c r="M6" t="n">
-        <v>574442.4779617924</v>
+        <v>571274.5115893304</v>
       </c>
       <c r="N6" t="n">
-        <v>659497.5058973042</v>
+        <v>656329.5395248422</v>
       </c>
       <c r="O6" t="n">
-        <v>659497.5058973042</v>
+        <v>656329.5395248424</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248423</v>
+        <v>656329.5395248421</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26802,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.113367172486498e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.113367172486498e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>292.6986514407691</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>235.2778014719911</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.885768653785448</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.787539711416258</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>179.8619349107118</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>333.4040210617723</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>29.43677569839011</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>176.035198425386</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>316.7465427605173</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>43.60786094376951</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>78.64635174962871</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>288.8958573929167</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>187.2159464875248</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963275</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>133.0108705119964</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>187.5431097317917</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>157.5541453095834</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>55.87423440419153</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164533</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3696441.144284837</v>
+        <v>3692345.502780072</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7613647.950485108</v>
+        <v>7613647.950485109</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>37.50520548391279</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>35.05360702936574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>142.4639694437126</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>100.6867690249414</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>227.0141108309996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>138.0793653087004</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2256846633474</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>147.636432596079</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>32.49442595689566</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>147.0633036394084</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>116.4636264596498</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,13 +1900,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>11.56087338713452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>188.769289601541</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.594095449514619</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>66.43694060669031</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>67.63081821229011</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>30.87238256912024</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.74007641194074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X40" t="n">
-        <v>117.4665281367401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>81.54417886827336</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>241.076224511998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1553.305894864461</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>532.380027266722</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>174.1143286599715</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>174.1143286599715</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>167.168827910768</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>155.504481675461</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1939.905734928583</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1939.905734928583</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1939.905734928583</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1939.905734928583</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>182.9275483748796</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>367.6491696559295</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874012</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>599.0346656714322</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C4" t="n">
-        <v>599.0346656714322</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D4" t="n">
-        <v>448.9180262590965</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E4" t="n">
-        <v>301.0049326767033</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F4" t="n">
-        <v>301.0049326767033</v>
+        <v>320.9370583556249</v>
       </c>
       <c r="G4" t="n">
-        <v>301.0049326767033</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>819.8272448149623</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>599.0346656714322</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1793.919728214993</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>1424.957211274581</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D5" t="n">
-        <v>1066.691512667831</v>
+        <v>1053.868699492391</v>
       </c>
       <c r="E5" t="n">
-        <v>1066.691512667831</v>
+        <v>668.0804468941469</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>257.0945421045394</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1793.919728214993</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8118151303141</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8756322024072</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1469.551489101419</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1469.551489101419</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1469.551489101419</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1214.867000895532</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>925.4498308585712</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>697.4602799605539</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>697.4602799605539</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.984276312612</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2349.518518051532</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>978.4591041917437</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>978.4591041917437</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,25 +5032,25 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>211.4566897748909</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>486.4214942667323</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239597</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3267.933418738896</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3098.997235810989</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2948.880596398654</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2800.967502816261</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2654.07755531835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2486.88145603323</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467153</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569136</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3449.581883569136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3045.530642171613</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4220.062895286247</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3965.37840708036</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3675.9612370434</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3447.971686145383</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3227.179107001853</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1895.093223067808</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1640.408734861921</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.99156482496</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>70.03064962107905</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883069376</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D13" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23.83108638657407</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>205.8445769401537</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>63.36835372228697</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>143.8269525734166</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.85777223953355</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.553656176954</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X40" t="n">
-        <v>108.243127252297</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>204.6402955209708</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.096870141792242e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756543</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.20035675655</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564426.1483367971</v>
+        <v>-564426.1483367973</v>
       </c>
       <c r="C6" t="n">
         <v>550325.6352391223</v>
       </c>
       <c r="D6" t="n">
-        <v>390904.3652412298</v>
+        <v>390904.36524123</v>
       </c>
       <c r="E6" t="n">
-        <v>330917.0777174868</v>
+        <v>330569.6984631302</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248418</v>
+        <v>655982.1602704856</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248421</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="I6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704856</v>
       </c>
       <c r="J6" t="n">
-        <v>488724.3617148599</v>
+        <v>488376.9824605026</v>
       </c>
       <c r="K6" t="n">
-        <v>656329.5395248425</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="L6" t="n">
-        <v>608035.5695166513</v>
+        <v>607688.1902622946</v>
       </c>
       <c r="M6" t="n">
-        <v>571274.5115893304</v>
+        <v>570927.1323349734</v>
       </c>
       <c r="N6" t="n">
-        <v>656329.5395248422</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="O6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248421</v>
+        <v>655982.1602704854</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.113367172486498e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,43 +26959,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.113367172486498e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5133470784926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>292.6986514407691</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.787539711416258</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.109826178959182</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>179.8619349107118</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>273.4683374642536</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>29.43677569839011</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>234.2939374761827</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>316.7465427605173</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>78.64635174962871</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>187.2159464875248</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133.0108705119964</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335553</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317917</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>55.87423440419153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164533</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>481.5356082478342</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3692345.502780072</v>
+        <v>3694106.033082857</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7613647.950485109</v>
+        <v>7613647.950485108</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>37.50520548391279</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>170.8922991575393</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6867690249414</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>184.1667395600448</v>
       </c>
       <c r="G5" t="n">
-        <v>138.0793653087004</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.9807481254283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>147.636432596079</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222619</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634835</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673012</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146491</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673012</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C2" t="n">
-        <v>532.380027266722</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>174.1143286599715</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>174.1143286599715</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>167.168827910768</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>155.504481675461</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2389.720844402641</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2389.720844402641</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2389.720844402641</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2389.720844402641</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>2389.720844402641</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>2389.720844402641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>299.2648838844856</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7929217761711</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>765.8567388482642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>615.7400994359284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>467.8270058535353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>320.9370583556249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>152.9505936639035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>152.9505936639035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.441386606411</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>1412.134398099142</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="D5" t="n">
-        <v>1053.868699492391</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="E5" t="n">
-        <v>668.0804468941469</v>
+        <v>315.3117916240327</v>
       </c>
       <c r="F5" t="n">
-        <v>257.0945421045394</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4606,13 +4606,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,7 +4761,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
         <v>1295.533244860336</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1381.278680221568</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1381.278680221568</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4950,31 +4950,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,7 +4992,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
         <v>1854.900232967364</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,25 +5044,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,19 +5178,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6408,10 +6408,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
         <v>2035.268256189238</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192656</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="41">
@@ -7390,37 +7390,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,61 +7545,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7608,13 +7608,13 @@
         <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0.9556134883073923</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194311</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194311</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710696</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
@@ -26325,34 +26325,34 @@
         <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="M2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.947012606919168e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
@@ -26444,19 +26444,19 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756506</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756532</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756515</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675641</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756555</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564426.1483367973</v>
+        <v>-564426.1483367974</v>
       </c>
       <c r="C6" t="n">
-        <v>550325.6352391223</v>
+        <v>550325.6352391224</v>
       </c>
       <c r="D6" t="n">
-        <v>390904.36524123</v>
+        <v>390904.3652412296</v>
       </c>
       <c r="E6" t="n">
-        <v>330569.6984631302</v>
+        <v>330882.3397920518</v>
       </c>
       <c r="F6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="G6" t="n">
-        <v>655982.1602704856</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="H6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="I6" t="n">
-        <v>655982.1602704856</v>
+        <v>656294.8015994068</v>
       </c>
       <c r="J6" t="n">
-        <v>488376.9824605026</v>
+        <v>488689.6237894241</v>
       </c>
       <c r="K6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="L6" t="n">
-        <v>607688.1902622946</v>
+        <v>608000.8315912156</v>
       </c>
       <c r="M6" t="n">
-        <v>570927.1323349734</v>
+        <v>571239.7736638949</v>
       </c>
       <c r="N6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="O6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="P6" t="n">
-        <v>655982.1602704854</v>
+        <v>656294.8015994071</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.5133470784926</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>35.76588582269449</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>4.109826178959182</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>222.7093061816667</v>
       </c>
       <c r="G5" t="n">
-        <v>273.4683374642536</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983997</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>201.1568951984</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>234.2939374761827</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194496</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062515</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -30398,58 +30398,58 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.576099820116069e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
     </row>
     <row r="41">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593833</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>187.5431097317922</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>631.9617651335553</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795091</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
